--- a/Excel/functions.xlsx
+++ b/Excel/functions.xlsx
@@ -424,13 +424,13 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -715,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -729,16 +729,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -810,18 +810,18 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
@@ -845,12 +845,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -958,13 +958,13 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1035,12 +1035,12 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B29" s="7">
         <f ca="1">TODAY()</f>
-        <v>45598</v>
+        <v>45601</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>54</v>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B30" s="8">
         <f ca="1">NOW()</f>
-        <v>45598.506423611114</v>
+        <v>45601.76544328704</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>56</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="B31" s="1">
         <f ca="1">DAY(B30)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>57</v>
@@ -1128,7 +1128,7 @@
       <c r="C35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -1212,11 +1212,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
     </row>
     <row r="46" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -1227,11 +1227,11 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1261,11 +1261,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
     </row>
     <row r="52" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1295,17 +1295,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Excel/functions.xlsx
+++ b/Excel/functions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>Logical Functions</t>
   </si>
@@ -337,6 +337,15 @@
   </si>
   <si>
     <t>/* mod */</t>
+  </si>
+  <si>
+    <t>text functions</t>
+  </si>
+  <si>
+    <t>date functions</t>
+  </si>
+  <si>
+    <t>math functions</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -431,6 +440,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -715,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1007,16 +1019,45 @@
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="F23" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="F24" s="1">
+        <f>FIND("a",A26,2)</f>
+        <v>5</v>
+      </c>
+      <c r="G24" s="1">
+        <f>DATEVALUE("11/2/2032")</f>
+        <v>48520</v>
+      </c>
+      <c r="H24" s="1">
+        <f>MROUND(10,2)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F25" s="1">
+        <f>SEARCH("A",A26)</f>
+        <v>5</v>
+      </c>
+      <c r="H25" s="1">
+        <f>MOD(10,3)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1025,6 +1066,10 @@
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="F26" s="1" t="str">
+        <f>REPLACE(A26,1,7,A29)</f>
+        <v xml:space="preserve">today </v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1033,6 +1078,10 @@
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="F27" s="1" t="str">
+        <f>SUBSTITUTE(A27,"tute","old")</f>
+        <v>Substiold</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
@@ -1048,7 +1097,7 @@
       </c>
       <c r="B29" s="7">
         <f ca="1">TODAY()</f>
-        <v>45601</v>
+        <v>45678</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>54</v>
@@ -1063,7 +1112,7 @@
       </c>
       <c r="B30" s="8">
         <f ca="1">NOW()</f>
-        <v>45601.76544328704</v>
+        <v>45678.725061921294</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>56</v>
@@ -1075,7 +1124,7 @@
       </c>
       <c r="B31" s="1">
         <f ca="1">DAY(B30)</f>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>57</v>
@@ -1295,17 +1344,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
